--- a/杭州成交日报.xlsx
+++ b/杭州成交日报.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E531"/>
+  <dimension ref="A1:E537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14770,6 +14770,168 @@
         </is>
       </c>
     </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>1125</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>933</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>686</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/杭州成交日报.xlsx
+++ b/杭州成交日报.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E537"/>
+  <dimension ref="A1:E554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14932,6 +14932,465 @@
         </is>
       </c>
     </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
